--- a/ExampleColumns.xlsx
+++ b/ExampleColumns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\russell\Documents\pyDMNrules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA2DEE7-8C5D-4447-A9C0-3ABB7C342EB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A5DD32-5A8D-4AB1-B0C9-C28F0BF75951}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12885" yWindow="-14910" windowWidth="18900" windowHeight="10980" activeTab="2" xr2:uid="{927A3934-8AED-48D8-8E86-6C6B2C78244E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{927A3934-8AED-48D8-8E86-6C6B2C78244E}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Glossary glossary</t>
   </si>
@@ -123,6 +123,39 @@
   </si>
   <si>
     <t>&gt;=10</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Small business</t>
+  </si>
+  <si>
+    <t>Business as usual</t>
+  </si>
+  <si>
+    <t>Fast delivery</t>
+  </si>
+  <si>
+    <t>Slow delivery</t>
+  </si>
+  <si>
+    <t>ToS 1</t>
+  </si>
+  <si>
+    <t>ToS 2</t>
+  </si>
+  <si>
+    <t>ToS 3</t>
+  </si>
+  <si>
+    <t>ToS 4</t>
+  </si>
+  <si>
+    <t>ToS 5</t>
   </si>
 </sst>
 </file>
@@ -177,7 +210,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +265,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -382,6 +421,43 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -393,7 +469,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,9 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -441,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -465,6 +535,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -488,6 +567,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -820,11 +917,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -841,7 +938,7 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -852,10 +949,10 @@
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -863,19 +960,19 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -903,24 +1000,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="2:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -934,133 +1031,175 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5588B9-FC99-4A0C-86FF-01AE7DC4DE61}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="15" t="s">
+      <c r="G3" s="30"/>
+      <c r="H3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="2:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="38">
         <v>0.05</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="39">
         <v>0.1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="39">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="39">
         <v>0.05</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="39">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
+      <c r="C9" s="12"/>
+      <c r="D9" s="25">
         <v>1</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E9" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F9" s="24">
         <v>3</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G9" s="24">
         <v>4</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H9" s="24">
         <v>5</v>
       </c>
     </row>
